--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -110,6 +110,30 @@
   </si>
   <si>
     <t>各伤害类型抗性系数</t>
+  </si>
+  <si>
+    <t>MaterialContainerMax</t>
+  </si>
+  <si>
+    <t>材料与消耗背包容量上限，超过此容量无法获得物品</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>EquipContainerMax</t>
+  </si>
+  <si>
+    <t>装备背包容量上限，超过此容量无法获得物品</t>
+  </si>
+  <si>
+    <t>CrystalContainerMax</t>
+  </si>
+  <si>
+    <t>晶石容量上限，超过此容量无法获得物品</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -117,9 +141,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -136,9 +160,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,15 +198,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,6 +214,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,9 +235,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,8 +258,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -207,21 +275,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,52 +303,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +326,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,13 +398,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,145 +482,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +587,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -571,15 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -590,6 +635,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -618,190 +678,160 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -809,66 +839,69 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1203,7 +1236,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1769,7 +1802,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2016,21 +2049,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.175" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.2307692307692" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.1730769230769" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2070,14 +2103,14 @@
       <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2087,14 +2120,14 @@
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2104,14 +2137,14 @@
       <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2121,14 +2154,14 @@
       <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2138,14 +2171,14 @@
       <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2155,14 +2188,14 @@
       <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2172,14 +2205,14 @@
       <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2189,14 +2222,14 @@
       <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2206,14 +2239,14 @@
       <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2223,19 +2256,70 @@
       <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>EquipPromoteLevelLimit</t>
+  </si>
+  <si>
+    <t>装备突破队伍等级限制</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>10,20,30,40,50</t>
   </si>
 </sst>
 </file>
@@ -143,8 +155,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -161,6 +173,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -171,6 +190,14 @@
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,6 +217,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -197,25 +232,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,9 +256,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,7 +286,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,51 +322,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -338,181 +350,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,17 +598,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,8 +610,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,21 +651,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,168 +681,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2051,10 +2063,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
@@ -2318,6 +2330,23 @@
         <v>39</v>
       </c>
     </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -154,8 +154,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -173,7 +173,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,64 +194,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,23 +216,87 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,24 +316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,31 +344,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,13 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,133 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,24 +598,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -631,15 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -651,6 +624,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,174 +689,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -857,63 +857,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2061,21 +2061,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.2307692307692" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.1730769230769" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.2333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.175" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2119,10 +2119,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2136,10 +2136,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2153,17 +2153,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2180,7 +2180,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2197,7 +2197,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2214,7 +2214,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2231,7 +2231,7 @@
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2248,7 +2248,7 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2265,7 +2265,7 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2282,7 +2282,7 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2299,7 +2299,7 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2316,7 +2316,7 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2333,7 +2333,7 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="8" t="s">

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -153,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -173,14 +173,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,15 +201,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,22 +215,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,14 +233,6 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,6 +252,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -277,10 +268,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,10 +285,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,16 +316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,187 +344,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,21 +599,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -624,6 +609,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,159 +681,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2066,7 +2066,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -155,8 +155,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -180,14 +180,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,8 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,14 +209,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,27 +307,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,61 +322,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -344,12 +344,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,13 +488,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,151 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,46 +598,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,11 +622,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,6 +648,35 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,10 +701,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,133 +713,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2066,7 +2066,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="31240" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -146,6 +146,24 @@
   </si>
   <si>
     <t>10,20,30,40,50</t>
+  </si>
+  <si>
+    <t>EquipLevelQualityRatio</t>
+  </si>
+  <si>
+    <t>装备升级品质参数，100%=10000</t>
+  </si>
+  <si>
+    <t>EquipAtkGrowRatio</t>
+  </si>
+  <si>
+    <t>装备攻击力属性成长率 ，100%=10000</t>
+  </si>
+  <si>
+    <t>EquipHpGrowRatio</t>
+  </si>
+  <si>
+    <t>装备血量属性成长率 ，100%=10000</t>
   </si>
 </sst>
 </file>
@@ -153,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -173,6 +191,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -180,14 +220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,14 +235,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,7 +281,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,21 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -260,68 +340,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -344,19 +362,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,163 +536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +625,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -618,21 +645,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,20 +664,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,151 +704,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -857,63 +875,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2061,21 +2079,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.2333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.175" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.2307692307692" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.1730769230769" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2119,10 +2137,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2136,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2153,17 +2171,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2180,7 +2198,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2197,7 +2215,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2214,7 +2232,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2231,7 +2249,7 @@
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2248,7 +2266,7 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2265,7 +2283,7 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2282,7 +2300,7 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2299,7 +2317,7 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2316,7 +2334,7 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2333,7 +2351,7 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2345,6 +2363,57 @@
       </c>
       <c r="G16" s="8" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -91,9 +91,6 @@
     <t>效果命中系数</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>EffectResistRatio</t>
   </si>
   <si>
@@ -145,7 +142,7 @@
     <t>[]int32</t>
   </si>
   <si>
-    <t>10,20,30,40,50</t>
+    <t>5,15,30,40,50</t>
   </si>
 </sst>
 </file>
@@ -154,9 +151,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -186,16 +183,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,13 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -230,9 +220,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +253,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,30 +306,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,37 +319,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -344,72 +341,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -422,7 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,30 +509,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -470,61 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,38 +598,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,15 +624,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,6 +649,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -701,10 +698,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,133 +710,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2066,7 +2063,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
@@ -2225,17 +2222,17 @@
         <v>7</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
@@ -2249,10 +2246,10 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
@@ -2266,10 +2263,10 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
@@ -2283,68 +2280,68 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31240" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -91,9 +91,6 @@
     <t>效果命中系数</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>EffectResistRatio</t>
   </si>
   <si>
@@ -154,16 +151,7 @@
     <t>装备升级品质参数，100%=10000</t>
   </si>
   <si>
-    <t>EquipAtkGrowRatio</t>
-  </si>
-  <si>
-    <t>装备攻击力属性成长率 ，100%=10000</t>
-  </si>
-  <si>
-    <t>EquipHpGrowRatio</t>
-  </si>
-  <si>
-    <t>装备血量属性成长率 ，100%=10000</t>
+    <t>5000,7500,10000,12500,15000</t>
   </si>
 </sst>
 </file>
@@ -171,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -191,44 +179,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,59 +187,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,23 +201,50 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,11 +260,74 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -362,43 +350,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,139 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,8 +607,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,32 +637,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,159 +672,180 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -875,63 +863,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2079,21 +2067,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.2307692307692" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.1730769230769" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.2333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.175" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2137,10 +2126,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2154,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2171,17 +2160,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2198,7 +2187,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2215,7 +2204,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2232,7 +2221,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2243,17 +2232,17 @@
         <v>7</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
@@ -2266,11 +2255,11 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
@@ -2283,11 +2272,11 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
@@ -2300,120 +2289,86 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="31240" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -91,6 +91,9 @@
     <t>效果命中系数</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>EffectResistRatio</t>
   </si>
   <si>
@@ -149,9 +152,6 @@
   </si>
   <si>
     <t>装备升级品质参数，100%=10000</t>
-  </si>
-  <si>
-    <t>5000,7500,10000,12500,15000</t>
   </si>
 </sst>
 </file>
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -179,7 +179,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,6 +264,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,29 +286,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,61 +300,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,25 +322,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,25 +350,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,157 +500,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,8 +607,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,11 +637,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,21 +664,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -683,6 +674,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,148 +704,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -863,63 +863,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2067,22 +2067,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A18" sqref="$A18:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.2333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.175" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.2307692307692" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.1730769230769" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2126,10 +2125,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2143,10 +2142,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2160,17 +2159,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2187,7 +2186,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2204,7 +2203,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2221,7 +2220,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2232,17 +2231,17 @@
         <v>7</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="10" t="s">
-        <v>25</v>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
@@ -2255,11 +2254,11 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
-        <v>27</v>
+      <c r="C11" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
@@ -2272,11 +2271,11 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="10" t="s">
-        <v>29</v>
+      <c r="C12" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
@@ -2289,86 +2288,86 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="10" t="s">
-        <v>31</v>
+      <c r="C13" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="10" t="s">
-        <v>34</v>
+      <c r="C14" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="10" t="s">
-        <v>36</v>
+      <c r="C15" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
-        <v>39</v>
+      <c r="C16" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="10" t="s">
-        <v>43</v>
+      <c r="C17" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31240" windowHeight="17020"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>装备升级品质参数，100%=10000</t>
+  </si>
+  <si>
+    <t>EquipInitExp</t>
+  </si>
+  <si>
+    <t>不同品质初始装备经验值</t>
   </si>
 </sst>
 </file>
@@ -2069,10 +2075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="$A18:$XFD19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
@@ -2370,6 +2376,23 @@
         <v>43</v>
       </c>
     </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>装备升级品质参数，100%=10000</t>
+  </si>
+  <si>
+    <t>EquipLevelGrowRatioAttId</t>
+  </si>
+  <si>
+    <t>装备升级成长率attid</t>
   </si>
   <si>
     <t>EquipInitExp</t>
@@ -2075,10 +2081,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
@@ -2387,9 +2393,26 @@
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>43</v>
       </c>
     </row>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -91,9 +91,6 @@
     <t>效果命中系数</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>EffectResistRatio</t>
   </si>
   <si>
@@ -160,10 +157,16 @@
     <t>装备升级成长率attid</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>EquipInitExp</t>
   </si>
   <si>
     <t>不同品质初始装备经验值</t>
+  </si>
+  <si>
+    <t>75,100,125,150,200</t>
   </si>
 </sst>
 </file>
@@ -171,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -190,23 +193,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -221,14 +225,57 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -250,11 +297,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,15 +314,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,58 +343,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -362,37 +365,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,145 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,20 +619,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,17 +679,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,190 +716,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -875,63 +878,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2079,21 +2082,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.2307692307692" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.1730769230769" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.2333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.175" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2137,10 +2140,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2154,10 +2157,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2171,17 +2174,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2198,7 +2201,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2215,7 +2218,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2232,7 +2235,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2243,17 +2246,17 @@
         <v>7</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
@@ -2266,11 +2269,11 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
@@ -2283,11 +2286,11 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
@@ -2300,109 +2303,109 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2410,10 +2413,10 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -151,6 +151,9 @@
     <t>装备升级品质参数，100%=10000</t>
   </si>
   <si>
+    <t>5000,7500,1,12500,15000</t>
+  </si>
+  <si>
     <t>EquipLevelGrowRatioAttId</t>
   </si>
   <si>
@@ -167,6 +170,33 @@
   </si>
   <si>
     <t>75,100,125,150,200</t>
+  </si>
+  <si>
+    <t>HeroPromoteLevelLimit</t>
+  </si>
+  <si>
+    <t>英雄突破队伍等级限制</t>
+  </si>
+  <si>
+    <t>1,10,20,35,45</t>
+  </si>
+  <si>
+    <t>HeroLevelQualityRatio</t>
+  </si>
+  <si>
+    <t>英雄升级品质参数，100%=10000</t>
+  </si>
+  <si>
+    <t>7500,1,12500</t>
+  </si>
+  <si>
+    <t>HeroLevelGrowRatioAttId</t>
+  </si>
+  <si>
+    <t>英雄升级成长率attid</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
@@ -174,8 +204,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -193,11 +223,77 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,10 +305,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,103 +330,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -343,6 +343,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -365,187 +395,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,17 +649,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,21 +678,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,18 +699,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,161 +717,180 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2084,10 +2114,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
@@ -2096,7 +2126,8 @@
     <col min="3" max="3" width="28.2333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.175" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.175" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2382,41 +2413,92 @@
         <v>41</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>75,100,125,150,200</t>
+  </si>
+  <si>
+    <t>HeroLevelQualityRatio</t>
+  </si>
+  <si>
+    <t>HeroLevelGrowRatioAttId</t>
+  </si>
+  <si>
+    <t>英雄升级成长率attid</t>
   </si>
 </sst>
 </file>
@@ -174,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -193,47 +202,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,28 +224,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -291,7 +262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,11 +284,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,15 +347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,19 +374,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,163 +542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,47 +628,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,11 +661,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,8 +694,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,151 +710,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -878,63 +887,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2082,21 +2091,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.2333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.175" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.2307692307692" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.1730769230769" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2140,10 +2149,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2157,10 +2166,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2174,17 +2183,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2201,7 +2210,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2218,7 +2227,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2235,7 +2244,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2252,7 +2261,7 @@
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2269,7 +2278,7 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2286,7 +2295,7 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2303,7 +2312,7 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2320,7 +2329,7 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2337,7 +2346,7 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2354,7 +2363,7 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2371,7 +2380,7 @@
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2388,7 +2397,7 @@
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2405,7 +2414,7 @@
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2417,6 +2426,40 @@
       </c>
       <c r="G19" s="8" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -187,7 +187,7 @@
     <t>英雄升级品质参数，100%=10000</t>
   </si>
   <si>
-    <t>7500,1,12500</t>
+    <t>7500,10000,12500</t>
   </si>
   <si>
     <t>HeroLevelGrowRatioAttId</t>
@@ -204,8 +204,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -231,22 +231,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,9 +261,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,8 +274,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +344,14 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -304,75 +373,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -401,25 +401,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,151 +569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,20 +649,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,21 +690,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,32 +714,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,10 +752,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,16 +764,16 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,115 +782,115 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2117,7 +2117,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -13,6 +13,38 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="G21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+只有升级增加的属性，即填了成长率的属性才会乘品质、职业系数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
@@ -209,7 +241,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -230,15 +262,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,10 +286,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,16 +330,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,55 +368,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,12 +398,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -395,31 +438,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,25 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,121 +600,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,32 +692,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,13 +718,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,17 +742,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,151 +774,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2117,7 +2160,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
@@ -2507,5 +2550,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -19,6 +19,52 @@
     <author>Admin</author>
   </authors>
   <commentList>
+    <comment ref="D18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+升级属性用公式做
+装备属性成长数值公式=(装备等级*各属性成长率+各属性固定值)*装备品质参数
+公式内取值分别对应配置表att、global</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1级吞噬后的经验值</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G21" authorId="0">
       <text>
         <r>
@@ -41,6 +87,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="D22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+升级属性用公式做
+卡牌升级各属性公式=（卡牌等级*各升级属性成长率+各升级属性固定值）*卡牌品质系数*卡牌职业系数
+公式内取值分别对应配置表att、global、HeroProfession</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -192,7 +262,7 @@
     <t>装备升级成长率attid</t>
   </si>
   <si>
-    <t>50</t>
+    <t>2005</t>
   </si>
   <si>
     <t>EquipInitExp</t>
@@ -228,7 +298,7 @@
     <t>英雄升级成长率attid</t>
   </si>
   <si>
-    <t>60</t>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -236,10 +306,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -256,7 +326,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,60 +431,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,32 +447,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,11 +460,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,14 +473,6 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,19 +508,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,37 +652,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,79 +676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,37 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,26 +764,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,8 +789,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,8 +827,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -769,8 +839,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,148 +862,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2160,7 +2230,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="31340" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D18" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,29 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1级吞噬后的经验值</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G21" authorId="0">
+    <comment ref="G22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0">
+    <comment ref="D23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -256,6 +234,18 @@
     <t>5000,7500,1,12500,15000</t>
   </si>
   <si>
+    <t>EquipSwallowExpLoss</t>
+  </si>
+  <si>
+    <t>装备吞噬经验折损率</t>
+  </si>
+  <si>
+    <t>EquipSwallowGoldLoss</t>
+  </si>
+  <si>
+    <t>装备吞噬金币折损率</t>
+  </si>
+  <si>
     <t>EquipLevelGrowRatioAttId</t>
   </si>
   <si>
@@ -265,15 +255,6 @@
     <t>2005</t>
   </si>
   <si>
-    <t>EquipInitExp</t>
-  </si>
-  <si>
-    <t>不同品质初始装备经验值</t>
-  </si>
-  <si>
-    <t>75,100,125,150,200</t>
-  </si>
-  <si>
     <t>HeroPromoteLevelLimit</t>
   </si>
   <si>
@@ -299,6 +280,36 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>CrystalSwallowExpLoss</t>
+  </si>
+  <si>
+    <t>晶石吞噬经验折损率</t>
+  </si>
+  <si>
+    <t>CrystalSwallowGoldLoss</t>
+  </si>
+  <si>
+    <t>晶石吞噬金币折损率</t>
+  </si>
+  <si>
+    <t>CrystalLevelupIntensityRatio</t>
+  </si>
+  <si>
+    <t>晶石升级强度系数</t>
+  </si>
+  <si>
+    <t>CrystalLevelupQualityRatio</t>
+  </si>
+  <si>
+    <t>晶石升级品质系数</t>
+  </si>
+  <si>
+    <t>CrystalLevelupRandRatio</t>
+  </si>
+  <si>
+    <t>晶石升级随机区间系数</t>
   </si>
 </sst>
 </file>
@@ -311,7 +322,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -323,6 +334,14 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -340,16 +359,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,29 +375,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -393,8 +388,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,22 +405,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,17 +452,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,39 +479,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -508,31 +508,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,151 +640,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,71 +766,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -859,151 +794,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,63 +1021,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2225,21 +2225,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.2333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.175" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1730769230769" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
@@ -2284,10 +2284,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2301,10 +2301,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2318,17 +2318,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2345,7 +2345,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2362,7 +2362,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2379,7 +2379,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2396,7 +2396,7 @@
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2413,7 +2413,7 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2430,7 +2430,7 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2447,7 +2447,7 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2464,7 +2464,7 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2481,7 +2481,7 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2498,7 +2498,7 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2515,7 +2515,7 @@
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2532,7 +2532,7 @@
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2542,77 +2542,165 @@
       <c r="F18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>51</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="10" t="s">
-        <v>52</v>
+      <c r="C20" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="21" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="10" t="s">
-        <v>55</v>
+      <c r="C21" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="22" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="10" t="s">
-        <v>58</v>
+      <c r="C22" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="G23" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31340" windowHeight="17020"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>晶石升级随机区间系数</t>
+  </si>
+  <si>
+    <t>CrystalViceAttAddLevel</t>
+  </si>
+  <si>
+    <t>晶石升级到3，6，9，12，15级时强化副属性</t>
+  </si>
+  <si>
+    <t>3,6,9,12,15</t>
   </si>
 </sst>
 </file>
@@ -318,9 +327,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -336,16 +345,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,18 +359,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,30 +399,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,16 +421,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,16 +452,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -472,18 +488,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -508,187 +517,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,17 +774,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,21 +810,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -821,6 +821,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,166 +855,164 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2227,10 +2236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
@@ -2702,6 +2711,23 @@
       </c>
       <c r="G28" s="8"/>
     </row>
+    <row r="29" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -89,12 +89,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="G25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1点经验消耗10金币</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -288,10 +310,16 @@
     <t>晶石吞噬经验折损率</t>
   </si>
   <si>
-    <t>CrystalSwallowGoldLoss</t>
-  </si>
-  <si>
-    <t>晶石吞噬金币折损率</t>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>CrystalLevelupExpGoldRatio</t>
+  </si>
+  <si>
+    <t>晶石升级经验对应消耗金币比例</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>CrystalLevelupIntensityRatio</t>
@@ -300,16 +328,25 @@
     <t>晶石升级强度系数</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>CrystalLevelupQualityRatio</t>
   </si>
   <si>
     <t>晶石升级品质系数</t>
   </si>
   <si>
+    <t>7000,8500,10000,11500,12500</t>
+  </si>
+  <si>
     <t>CrystalLevelupRandRatio</t>
   </si>
   <si>
-    <t>晶石升级随机区间系数</t>
+    <t>晶石升级副属性随机区间系数</t>
+  </si>
+  <si>
+    <t>9000,11000</t>
   </si>
   <si>
     <t>CrystalViceAttAddLevel</t>
@@ -326,12 +363,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -345,8 +382,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,20 +393,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,16 +412,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,7 +436,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,16 +465,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,20 +503,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -473,27 +511,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -517,187 +565,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,8 +822,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,6 +848,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,6 +899,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -835,184 +916,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,63 +1078,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2234,21 +2282,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1730769230769" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.175" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
@@ -2293,10 +2341,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2310,10 +2358,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2327,17 +2375,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2354,7 +2402,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2371,7 +2419,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2388,7 +2436,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2405,7 +2453,7 @@
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2422,7 +2470,7 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2439,7 +2487,7 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2456,7 +2504,7 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2473,7 +2521,7 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2490,7 +2538,7 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2507,7 +2555,7 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2524,7 +2572,7 @@
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2541,7 +2589,7 @@
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2556,7 +2604,7 @@
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2571,7 +2619,7 @@
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -2585,10 +2633,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -2602,10 +2650,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -2619,10 +2667,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -2636,10 +2684,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -2649,83 +2697,93 @@
       <c r="F24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="G24" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="9" t="s">
-        <v>64</v>
+      <c r="C25" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="G25" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="9" t="s">
-        <v>66</v>
+      <c r="C26" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="G26" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="9" t="s">
-        <v>68</v>
+      <c r="C27" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="G27" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="9" t="s">
-        <v>70</v>
+      <c r="C28" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="G28" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="9" t="s">
-        <v>72</v>
+      <c r="C29" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -292,7 +292,7 @@
     <t>英雄升级品质参数，100%=10000</t>
   </si>
   <si>
-    <t>7500,10000,12500</t>
+    <t>0,0,7500,10000,12500</t>
   </si>
   <si>
     <t>HeroLevelGrowRatioAttId</t>
@@ -364,9 +364,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -382,18 +382,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,17 +405,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,16 +418,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,6 +434,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,9 +457,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -472,10 +470,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,14 +503,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -511,8 +510,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,7 +520,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,19 +565,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,7 +637,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,139 +733,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,39 +819,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -863,6 +830,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,8 +876,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,151 +901,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2287,7 +2287,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>

--- a/global/GlobalConfig.xlsx
+++ b/global/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D20" authorId="0">
+    <comment ref="D17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -37,13 +37,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-升级属性用公式做
-装备属性成长数值公式=(装备等级*各属性成长率+各属性固定值)*装备品质参数
-公式内取值分别对应配置表att、global</t>
+关联EquipLevelup表promoteLimit突破次数限制</t>
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0">
+    <comment ref="D18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,11 +59,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-只有升级增加的属性，即填了成长率的属性才会乘品质、职业系数</t>
+装备突破属性公式=（装备突破次数对应强度等级*突破属性成长率+突破属性固定值）*品质系数
+成长率和固定值配置在att表内，att的id被EquipEnchant表读取</t>
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0">
+    <comment ref="G18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,13 +82,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-升级属性用公式做
-卡牌升级各属性公式=（卡牌等级*各升级属性成长率+各升级属性固定值）*卡牌品质系数*卡牌职业系数
-公式内取值分别对应配置表att、global、HeroProfession</t>
+包括1级就有的突破属性
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0">
+    <comment ref="G24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,17 +109,182 @@
         </r>
       </text>
     </comment>
+    <comment ref="D25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+升级属性用公式做
+装备属性成长数值公式=(装备等级*各属性成长率+各属性固定值)*装备品质参数
+公式内取值分别对应配置表att、globalconfig</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+卡牌突破各属性公式=（卡牌突破强度等级*各突破属性成长率+各突破属性固定值）*卡牌品质系数*各突破属性卡牌职业系数
+关联att表读取卡牌突破属性成长率和固定值。
+关联HeroProfession表读取各英雄职业、各属性的职业系数范围</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+只有升级增加的属性，即填了成长率的属性才会乘品质、职业系数
+目前只有3个品质，但要求填5个，所以前两个低品质填0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+升级属性用公式做
+卡牌升级各属性公式=（卡牌等级*各升级属性成长率+各升级属性固定值）*卡牌品质系数*卡牌职业系数
+公式内取值分别对应配置表att、globalconfig</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1点经验消耗10金币</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+注意不能小于2</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="118">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>导出字段名</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导出字段名（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开头字母要求必须小写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>导出字段描述</t>
@@ -130,10 +293,13 @@
     <t>导出字段控制</t>
   </si>
   <si>
-    <t>导出字段类型</t>
-  </si>
-  <si>
-    <t>导出字段值</t>
+    <t>导出字段类型
+类型是number的可以直接填小数
+属性公式系数目前都用int32</t>
+  </si>
+  <si>
+    <t>导出字段值
+数组的用英文逗号分开</t>
   </si>
   <si>
     <t>id</t>
@@ -145,7 +311,19 @@
     <t>1</t>
   </si>
   <si>
-    <t>ArmorRatio</t>
+    <t>demoSceneRadius</t>
+  </si>
+  <si>
+    <t>Demo战斗场景半径，单位米(Demo完成后删除)</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>armorRatio</t>
   </si>
   <si>
     <t>护甲减免系数</t>
@@ -154,7 +332,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>DmgRatio</t>
+    <t>dmgRatio</t>
   </si>
   <si>
     <t>总伤害率系数</t>
@@ -163,7 +341,7 @@
     <t>10000</t>
   </si>
   <si>
-    <t>CritRatio</t>
+    <t>critRatio</t>
   </si>
   <si>
     <t>暴击率系数</t>
@@ -172,13 +350,13 @@
     <t>4000</t>
   </si>
   <si>
-    <t>CritIncRatio</t>
+    <t>critIncRatio</t>
   </si>
   <si>
     <t>暴击倍数加成系数</t>
   </si>
   <si>
-    <t>HealRatio</t>
+    <t>healRatio</t>
   </si>
   <si>
     <t>治疗量系数</t>
@@ -187,31 +365,31 @@
     <t>7000</t>
   </si>
   <si>
-    <t>EffectHitRatio</t>
+    <t>effectHitRatio</t>
   </si>
   <si>
     <t>效果命中系数</t>
   </si>
   <si>
-    <t>EffectResistRatio</t>
+    <t>effectResistRatio</t>
   </si>
   <si>
     <t>效果抵抗系数</t>
   </si>
   <si>
-    <t>ElementDmgRatio</t>
+    <t>elementDmgRatio</t>
   </si>
   <si>
     <t>各伤害类型加成系数</t>
   </si>
   <si>
-    <t>ElementResRatio</t>
+    <t>elementResRatio</t>
   </si>
   <si>
     <t>各伤害类型抗性系数</t>
   </si>
   <si>
-    <t>MaterialContainerMax</t>
+    <t>materialContainerMax</t>
   </si>
   <si>
     <t>材料与消耗背包容量上限，超过此容量无法获得物品</t>
@@ -220,13 +398,13 @@
     <t>200</t>
   </si>
   <si>
-    <t>EquipContainerMax</t>
+    <t>equipContainerMax</t>
   </si>
   <si>
     <t>装备背包容量上限，超过此容量无法获得物品</t>
   </si>
   <si>
-    <t>CrystalContainerMax</t>
+    <t>crystalContainerMax</t>
   </si>
   <si>
     <t>晶石容量上限，超过此容量无法获得物品</t>
@@ -235,94 +413,163 @@
     <t>1000</t>
   </si>
   <si>
-    <t>EquipPromoteLevelLimit</t>
-  </si>
-  <si>
-    <t>装备突破队伍等级限制</t>
+    <t>equipPromoteLevelLimit</t>
+  </si>
+  <si>
+    <t>装备突破[0-7]队伍等级限制</t>
   </si>
   <si>
     <t>[]int32</t>
   </si>
   <si>
-    <t>10,20,30,40,50</t>
-  </si>
-  <si>
-    <t>EquipLevelQualityRatio</t>
-  </si>
-  <si>
-    <t>装备升级品质参数，100%=10000</t>
-  </si>
-  <si>
-    <t>5000,7500,1,12500,15000</t>
-  </si>
-  <si>
-    <t>EquipSwallowExpLoss</t>
+    <t>0,10,30,45,55,60,65,70</t>
+  </si>
+  <si>
+    <t>equipPromoteIntensityRatio</t>
+  </si>
+  <si>
+    <t>装备突破[0-7]每次强度等级</t>
+  </si>
+  <si>
+    <t>1,20,40,50,60,70,80,90</t>
+  </si>
+  <si>
+    <t>equipLevelQualityRatio</t>
+  </si>
+  <si>
+    <t>装备升级和突破品质参数</t>
+  </si>
+  <si>
+    <t>[]number</t>
+  </si>
+  <si>
+    <t>0.5,0.75,1,1.25,1.5</t>
+  </si>
+  <si>
+    <t>equipSwallowExpLoss</t>
   </si>
   <si>
     <t>装备吞噬经验折损率</t>
   </si>
   <si>
-    <t>EquipSwallowGoldLoss</t>
-  </si>
-  <si>
-    <t>装备吞噬金币折损率</t>
-  </si>
-  <si>
-    <t>EquipLevelGrowRatioAttId</t>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>equipExpItems</t>
+  </si>
+  <si>
+    <t>装备经验道具id</t>
+  </si>
+  <si>
+    <t>400,401,402,403,404</t>
+  </si>
+  <si>
+    <t>heroLevelupExpGoldRatio</t>
+  </si>
+  <si>
+    <t>英雄升级经验对应消耗金币比例</t>
+  </si>
+  <si>
+    <t>heroExpItems</t>
+  </si>
+  <si>
+    <t>英雄经验道具id</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>equipLevelupExpGoldRatio</t>
+  </si>
+  <si>
+    <t>装备升级经验对应消耗金币比例</t>
+  </si>
+  <si>
+    <t>equipLevelGrowRatioAttId</t>
   </si>
   <si>
     <t>装备升级成长率attid</t>
   </si>
   <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>HeroPromoteLevelLimit</t>
-  </si>
-  <si>
-    <t>英雄突破队伍等级限制</t>
-  </si>
-  <si>
-    <t>1,10,20,35,45</t>
-  </si>
-  <si>
-    <t>HeroLevelQualityRatio</t>
-  </si>
-  <si>
-    <t>英雄升级品质参数，100%=10000</t>
-  </si>
-  <si>
-    <t>0,0,7500,10000,12500</t>
-  </si>
-  <si>
-    <t>HeroLevelGrowRatioAttId</t>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>heroPromoteLevelLimit</t>
+  </si>
+  <si>
+    <t>英雄突破[0-6]队伍等级限制</t>
+  </si>
+  <si>
+    <t>10,30,45,55,60,65,70</t>
+  </si>
+  <si>
+    <t>heroPromoteIntensityRatio</t>
+  </si>
+  <si>
+    <t>英雄突破[0-6]每次强度等级</t>
+  </si>
+  <si>
+    <t>20,40,50,60,70,80,90</t>
+  </si>
+  <si>
+    <t>heroPromoteGrowupId</t>
+  </si>
+  <si>
+    <t>英雄突破成长率attid</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>heroPromoteBaseId</t>
+  </si>
+  <si>
+    <t>英雄突破固定值attid</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>heroLevelQualityRatio</t>
+  </si>
+  <si>
+    <t>英雄升级和突破品质参数：N，R，SR，SSR，UR</t>
+  </si>
+  <si>
+    <t>0,0,0.75,1,1.25</t>
+  </si>
+  <si>
+    <t>heroLevelGrowRatioAttId</t>
   </si>
   <si>
     <t>英雄升级成长率attid</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>CrystalSwallowExpLoss</t>
+    <t>310</t>
+  </si>
+  <si>
+    <t>crystalSwallowExpLoss</t>
   </si>
   <si>
     <t>晶石吞噬经验折损率</t>
   </si>
   <si>
-    <t>8000</t>
-  </si>
-  <si>
-    <t>CrystalLevelupExpGoldRatio</t>
+    <t>crystalLevelupExpGoldRatio</t>
   </si>
   <si>
     <t>晶石升级经验对应消耗金币比例</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>CrystalLevelupIntensityRatio</t>
+    <t>crystalExpItems</t>
+  </si>
+  <si>
+    <t>晶石经验道具id</t>
+  </si>
+  <si>
+    <t>600,601,602,603,604</t>
+  </si>
+  <si>
+    <t>crystalLevelupIntensityRatio</t>
   </si>
   <si>
     <t>晶石升级强度系数</t>
@@ -331,31 +578,64 @@
     <t>4</t>
   </si>
   <si>
-    <t>CrystalLevelupQualityRatio</t>
-  </si>
-  <si>
-    <t>晶石升级品质系数</t>
-  </si>
-  <si>
-    <t>7000,8500,10000,11500,12500</t>
-  </si>
-  <si>
-    <t>CrystalLevelupRandRatio</t>
+    <t>crystalLevelupMainQualityRatio</t>
+  </si>
+  <si>
+    <t>晶石升级主属性品质系数</t>
+  </si>
+  <si>
+    <t>0.7,0.85,1,1.15,1.3</t>
+  </si>
+  <si>
+    <t>crystalLevelupViceQualityRatio</t>
+  </si>
+  <si>
+    <t>晶石升级副属性品质系数</t>
+  </si>
+  <si>
+    <t>0.6,0.7,0.8,0.9,1</t>
+  </si>
+  <si>
+    <t>crystalLevelupRandRatio</t>
   </si>
   <si>
     <t>晶石升级副属性随机区间系数</t>
   </si>
   <si>
-    <t>9000,11000</t>
-  </si>
-  <si>
-    <t>CrystalViceAttAddLevel</t>
+    <t>0.8,1.1</t>
+  </si>
+  <si>
+    <t>crystalViceAttAddLevel</t>
   </si>
   <si>
     <t>晶石升级到3，6，9，12，15级时强化副属性</t>
   </si>
   <si>
     <t>3,6,9,12,15</t>
+  </si>
+  <si>
+    <t>crystalLevelupQualityLimit</t>
+  </si>
+  <si>
+    <t>各品质晶石强化等级上限</t>
+  </si>
+  <si>
+    <t>crystalLevelupAssistantNumber</t>
+  </si>
+  <si>
+    <t>晶石副属性随机到相同属性的次数上限</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>sweepStageItem</t>
+  </si>
+  <si>
+    <t>扫荡券物品id</t>
+  </si>
+  <si>
+    <t>615</t>
   </si>
 </sst>
 </file>
@@ -363,15 +643,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
@@ -405,26 +691,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -439,9 +712,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,7 +728,68 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -472,17 +805,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,47 +819,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <color rgb="FF00B0F0"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
@@ -543,6 +830,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -565,7 +857,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,7 +899,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,13 +929,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,43 +971,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,13 +983,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,67 +1013,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,6 +1111,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -830,6 +1137,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,25 +1174,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -887,17 +1190,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,170 +1211,177 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1439,7 +1738,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1729,7 +2028,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2005,7 +2304,7 @@
           <a:miter lim="400000"/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2284,21 +2583,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.175" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
@@ -2318,472 +2618,705 @@
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="14" customHeight="1" spans="1:7">
+    <row r="3" ht="14.1" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14" customHeight="1" spans="1:7">
+    <row r="4" ht="14.1" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" ht="14" customHeight="1" spans="1:7">
+      <c r="G4" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="14.1" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="14" customHeight="1" spans="1:7">
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="14.1" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" ht="14" customHeight="1" spans="1:7">
+      <c r="G6" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="14.1" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="14" customHeight="1" spans="1:7">
+      <c r="G7" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="14.1" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="8" t="s">
+      <c r="C8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" ht="14" customHeight="1" spans="1:7">
+      <c r="G8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="14.1" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:7">
+      <c r="G9" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="14.1" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8" t="s">
+      <c r="C10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>14</v>
+      <c r="G10" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8" t="s">
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>14</v>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="8" t="s">
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="G12" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8" t="s">
+      <c r="C13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="G13" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="G14" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="8" t="s">
+      <c r="D16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="G17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="D18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="C19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="C20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="C21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="C22" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="C23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="8" t="s">
+      <c r="C24" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="G24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="8" t="s">
+      <c r="C25" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="G25" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="C26" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="D26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="C27" s="12" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="D27" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="C28" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="D28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="C29" s="12" t="s">
         <v>79</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:7">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="1:7">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:7">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:7">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:7">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:7">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:7">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="1:7">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="1:7">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="1:7">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:7">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:7">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
